--- a/Sonstiges/Teamprojekt_Zeitplan.xlsx
+++ b/Sonstiges/Teamprojekt_Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECFF7AA2-8724-5B45-8832-FF6EB862957B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A853883-7F2A-064F-829C-D47B35EA71DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,9 +136,6 @@
     <t>Basisdaten funkionsfähig machen</t>
   </si>
   <si>
-    <t>Daten auf Algorithmen auf Algorithmen und Ideen anpassen</t>
-  </si>
-  <si>
     <t>Data Collection und Heransgehensweise in Paper erläutern</t>
   </si>
   <si>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t>SS 2021</t>
+  </si>
+  <si>
+    <t>Daten auf Algorithmen und Ideen anpassen</t>
   </si>
 </sst>
 </file>
@@ -1168,6 +1168,18 @@
     <xf numFmtId="0" fontId="7" fillId="45" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1178,18 +1190,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Akzent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1745,8 +1745,8 @@
   <dimension ref="A1:BL34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V13" sqref="V13"/>
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1771,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
@@ -1791,340 +1791,340 @@
         <v>3</v>
       </c>
       <c r="B3" s="36"/>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="81">
+      <c r="D3" s="79"/>
+      <c r="E3" s="77">
         <v>44287</v>
       </c>
-      <c r="F3" s="81"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="78">
+        <v>10</v>
+      </c>
+      <c r="I4" s="74">
         <f>I5</f>
-        <v>44291</v>
-      </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="78">
+        <v>44347</v>
+      </c>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="74">
         <f>P5</f>
-        <v>44298</v>
-      </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="78">
+        <v>44354</v>
+      </c>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="74">
         <f>W5</f>
-        <v>44305</v>
-      </c>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="78">
+        <v>44361</v>
+      </c>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="74">
         <f>AD5</f>
-        <v>44312</v>
-      </c>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="78">
+        <v>44368</v>
+      </c>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="74">
         <f>AK5</f>
-        <v>44319</v>
-      </c>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
-      <c r="AP4" s="79"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="78">
+        <v>44375</v>
+      </c>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="75"/>
+      <c r="AN4" s="75"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="74">
         <f>AR5</f>
-        <v>44326</v>
-      </c>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="79"/>
-      <c r="AU4" s="79"/>
-      <c r="AV4" s="79"/>
-      <c r="AW4" s="79"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="78">
+        <v>44382</v>
+      </c>
+      <c r="AS4" s="75"/>
+      <c r="AT4" s="75"/>
+      <c r="AU4" s="75"/>
+      <c r="AV4" s="75"/>
+      <c r="AW4" s="75"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="74">
         <f>AY5</f>
-        <v>44333</v>
-      </c>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="79"/>
-      <c r="BC4" s="79"/>
-      <c r="BD4" s="79"/>
-      <c r="BE4" s="80"/>
-      <c r="BF4" s="78">
+        <v>44389</v>
+      </c>
+      <c r="AZ4" s="75"/>
+      <c r="BA4" s="75"/>
+      <c r="BB4" s="75"/>
+      <c r="BC4" s="75"/>
+      <c r="BD4" s="75"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="74">
         <f>BF5</f>
-        <v>44340</v>
-      </c>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="79"/>
-      <c r="BI4" s="79"/>
-      <c r="BJ4" s="79"/>
-      <c r="BK4" s="79"/>
-      <c r="BL4" s="80"/>
+        <v>44396</v>
+      </c>
+      <c r="BG4" s="75"/>
+      <c r="BH4" s="75"/>
+      <c r="BI4" s="75"/>
+      <c r="BJ4" s="75"/>
+      <c r="BK4" s="75"/>
+      <c r="BL4" s="76"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
       <c r="I5" s="61">
         <f>Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
-        <v>44291</v>
+        <v>44347</v>
       </c>
       <c r="J5" s="62">
         <f>I5+1</f>
-        <v>44292</v>
+        <v>44348</v>
       </c>
       <c r="K5" s="62">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44293</v>
+        <v>44349</v>
       </c>
       <c r="L5" s="62">
         <f t="shared" si="0"/>
-        <v>44294</v>
+        <v>44350</v>
       </c>
       <c r="M5" s="62">
         <f t="shared" si="0"/>
-        <v>44295</v>
+        <v>44351</v>
       </c>
       <c r="N5" s="62">
         <f t="shared" si="0"/>
-        <v>44296</v>
+        <v>44352</v>
       </c>
       <c r="O5" s="63">
         <f t="shared" si="0"/>
-        <v>44297</v>
+        <v>44353</v>
       </c>
       <c r="P5" s="61">
         <f>O5+1</f>
-        <v>44298</v>
+        <v>44354</v>
       </c>
       <c r="Q5" s="62">
         <f>P5+1</f>
-        <v>44299</v>
+        <v>44355</v>
       </c>
       <c r="R5" s="62">
         <f t="shared" si="0"/>
-        <v>44300</v>
+        <v>44356</v>
       </c>
       <c r="S5" s="62">
         <f t="shared" si="0"/>
-        <v>44301</v>
+        <v>44357</v>
       </c>
       <c r="T5" s="62">
         <f t="shared" si="0"/>
-        <v>44302</v>
+        <v>44358</v>
       </c>
       <c r="U5" s="62">
         <f t="shared" si="0"/>
-        <v>44303</v>
+        <v>44359</v>
       </c>
       <c r="V5" s="63">
         <f t="shared" si="0"/>
-        <v>44304</v>
+        <v>44360</v>
       </c>
       <c r="W5" s="61">
         <f>V5+1</f>
-        <v>44305</v>
+        <v>44361</v>
       </c>
       <c r="X5" s="62">
         <f>W5+1</f>
-        <v>44306</v>
+        <v>44362</v>
       </c>
       <c r="Y5" s="62">
         <f t="shared" si="0"/>
-        <v>44307</v>
+        <v>44363</v>
       </c>
       <c r="Z5" s="62">
         <f t="shared" si="0"/>
-        <v>44308</v>
+        <v>44364</v>
       </c>
       <c r="AA5" s="62">
         <f t="shared" si="0"/>
-        <v>44309</v>
+        <v>44365</v>
       </c>
       <c r="AB5" s="62">
         <f t="shared" si="0"/>
-        <v>44310</v>
+        <v>44366</v>
       </c>
       <c r="AC5" s="63">
         <f t="shared" si="0"/>
-        <v>44311</v>
+        <v>44367</v>
       </c>
       <c r="AD5" s="61">
         <f>AC5+1</f>
-        <v>44312</v>
+        <v>44368</v>
       </c>
       <c r="AE5" s="62">
         <f>AD5+1</f>
-        <v>44313</v>
+        <v>44369</v>
       </c>
       <c r="AF5" s="62">
         <f t="shared" si="0"/>
-        <v>44314</v>
+        <v>44370</v>
       </c>
       <c r="AG5" s="62">
         <f t="shared" si="0"/>
-        <v>44315</v>
+        <v>44371</v>
       </c>
       <c r="AH5" s="62">
         <f t="shared" si="0"/>
-        <v>44316</v>
+        <v>44372</v>
       </c>
       <c r="AI5" s="62">
         <f t="shared" si="0"/>
-        <v>44317</v>
+        <v>44373</v>
       </c>
       <c r="AJ5" s="63">
         <f t="shared" si="0"/>
-        <v>44318</v>
+        <v>44374</v>
       </c>
       <c r="AK5" s="61">
         <f>AJ5+1</f>
-        <v>44319</v>
+        <v>44375</v>
       </c>
       <c r="AL5" s="62">
         <f>AK5+1</f>
-        <v>44320</v>
+        <v>44376</v>
       </c>
       <c r="AM5" s="62">
         <f t="shared" si="0"/>
-        <v>44321</v>
+        <v>44377</v>
       </c>
       <c r="AN5" s="62">
         <f t="shared" si="0"/>
-        <v>44322</v>
+        <v>44378</v>
       </c>
       <c r="AO5" s="62">
         <f t="shared" si="0"/>
-        <v>44323</v>
+        <v>44379</v>
       </c>
       <c r="AP5" s="62">
         <f t="shared" si="0"/>
-        <v>44324</v>
+        <v>44380</v>
       </c>
       <c r="AQ5" s="63">
         <f t="shared" si="0"/>
-        <v>44325</v>
+        <v>44381</v>
       </c>
       <c r="AR5" s="61">
         <f>AQ5+1</f>
-        <v>44326</v>
+        <v>44382</v>
       </c>
       <c r="AS5" s="62">
         <f>AR5+1</f>
-        <v>44327</v>
+        <v>44383</v>
       </c>
       <c r="AT5" s="62">
         <f t="shared" si="0"/>
-        <v>44328</v>
+        <v>44384</v>
       </c>
       <c r="AU5" s="62">
         <f t="shared" si="0"/>
-        <v>44329</v>
+        <v>44385</v>
       </c>
       <c r="AV5" s="62">
         <f t="shared" si="0"/>
-        <v>44330</v>
+        <v>44386</v>
       </c>
       <c r="AW5" s="62">
         <f t="shared" si="0"/>
-        <v>44331</v>
+        <v>44387</v>
       </c>
       <c r="AX5" s="63">
         <f t="shared" si="0"/>
-        <v>44332</v>
+        <v>44388</v>
       </c>
       <c r="AY5" s="61">
         <f>AX5+1</f>
-        <v>44333</v>
+        <v>44389</v>
       </c>
       <c r="AZ5" s="62">
         <f>AY5+1</f>
-        <v>44334</v>
+        <v>44390</v>
       </c>
       <c r="BA5" s="62">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="BB5" s="62">
         <f t="shared" si="1"/>
-        <v>44336</v>
+        <v>44392</v>
       </c>
       <c r="BC5" s="62">
         <f t="shared" si="1"/>
-        <v>44337</v>
+        <v>44393</v>
       </c>
       <c r="BD5" s="62">
         <f t="shared" si="1"/>
-        <v>44338</v>
+        <v>44394</v>
       </c>
       <c r="BE5" s="63">
         <f t="shared" si="1"/>
-        <v>44339</v>
+        <v>44395</v>
       </c>
       <c r="BF5" s="61">
         <f>BE5+1</f>
-        <v>44340</v>
+        <v>44396</v>
       </c>
       <c r="BG5" s="62">
         <f>BF5+1</f>
-        <v>44341</v>
+        <v>44397</v>
       </c>
       <c r="BH5" s="62">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44342</v>
+        <v>44398</v>
       </c>
       <c r="BI5" s="62">
         <f t="shared" si="2"/>
-        <v>44343</v>
+        <v>44399</v>
       </c>
       <c r="BJ5" s="62">
         <f t="shared" si="2"/>
-        <v>44344</v>
+        <v>44400</v>
       </c>
       <c r="BK5" s="62">
         <f t="shared" si="2"/>
-        <v>44345</v>
+        <v>44401</v>
       </c>
       <c r="BL5" s="63">
         <f t="shared" si="2"/>
-        <v>44346</v>
+        <v>44402</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2605,12 +2605,12 @@
         <v>44301</v>
       </c>
       <c r="F10" s="51">
-        <v>44306</v>
+        <v>44316</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
@@ -2747,7 +2747,7 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="45" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="16"/>
@@ -2822,7 +2822,7 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="16"/>
@@ -2894,7 +2894,7 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="16"/>
@@ -2968,10 +2968,10 @@
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="18"/>
@@ -3042,7 +3042,7 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="19"/>
@@ -3117,7 +3117,7 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="19"/>
@@ -3189,7 +3189,7 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="19"/>
@@ -3197,7 +3197,7 @@
         <v>44327</v>
       </c>
       <c r="F18" s="54">
-        <v>44338</v>
+        <v>44345</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -3261,7 +3261,7 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="19"/>
@@ -3336,7 +3336,7 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="19"/>
@@ -3411,7 +3411,7 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="19"/>
@@ -3485,10 +3485,10 @@
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="21"/>
@@ -3559,7 +3559,7 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="22"/>
@@ -3634,7 +3634,7 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="22"/>
@@ -3705,10 +3705,10 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="24"/>
@@ -3779,7 +3779,7 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="44"/>
       <c r="D26" s="25"/>
@@ -3854,7 +3854,7 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="66"/>
       <c r="D27" s="67"/>
@@ -3922,7 +3922,7 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="70"/>
       <c r="D28" s="71"/>
@@ -3994,7 +3994,7 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
       <c r="B29" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="71"/>
@@ -4066,7 +4066,7 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="71"/>
@@ -4138,15 +4138,15 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="71"/>
       <c r="E31" s="72">
-        <v>44382</v>
+        <v>44392</v>
       </c>
       <c r="F31" s="72">
-        <v>44391</v>
+        <v>44395</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -4219,6 +4219,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4226,11 +4231,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D31">
     <cfRule type="dataBar" priority="14">
@@ -4304,6 +4304,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101002FB8916F7ACC8D48AAEB8034B3D1B925" ma:contentTypeVersion="6" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="5bf6fcd3d5ebc050c640b54a70b1f0f2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e73ddb5f-d660-46e4-94cc-dd129e8ad186" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2192986c6e7e93cf8e8057a31767a3c6" ns2:_="">
     <xsd:import namespace="e73ddb5f-d660-46e4-94cc-dd129e8ad186"/>
@@ -4461,12 +4467,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE7F7824-2D62-4703-B237-AB13F5767F87}">
   <ds:schemaRefs>
@@ -4476,6 +4476,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34ECD0AC-ECBB-4DFF-907C-4B5D2EE602BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e73ddb5f-d660-46e4-94cc-dd129e8ad186"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1874A8-F599-40B2-8379-E6A9B0DB00E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4491,20 +4507,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34ECD0AC-ECBB-4DFF-907C-4B5D2EE602BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e73ddb5f-d660-46e4-94cc-dd129e8ad186"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>